--- a/Sep19/pos_prof/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/pos_prof/Tables/income_no_tax_havens.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>M_ETR</t>
+  </si>
+  <si>
+    <t>M_PL</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -419,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -456,164 +459,182 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.2147588053950578</v>
       </c>
       <c r="C2">
+        <v>1008209699708</v>
+      </c>
+      <c r="D2">
         <v>0.03330102024555517</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0230266145030766</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.03707669076519401</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0301742627328951</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.01765786126957369</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.01715956248084734</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.08828930634786847</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.08579781240423663</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2.296491669346442</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
+      <c r="C3">
+        <v>3140810</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.3894581041516433</v>
       </c>
       <c r="C4">
+        <v>21277927825</v>
+      </c>
+      <c r="D4">
         <v>-0.02347918287685938</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1100454639252752</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.01484508386776018</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.0748578428211691</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.002422255973874029</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.008898072817619713</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.01211127986937016</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.04449036408809857</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.04210160584805436</v>
       </c>
       <c r="C5">
+        <v>353160988340</v>
+      </c>
+      <c r="D5">
         <v>-0.5431764961505906</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.7169661051962088</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.5373028365544797</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.6540560872305003</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.1949980970151109</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.2034267257700203</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.9749904850755553</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-1.017133628850102</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.38480040209338</v>
       </c>
       <c r="C6">
+        <v>49527932043</v>
+      </c>
+      <c r="D6">
         <v>0.01078791651731822</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.03407620329856437</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.01014203608749802</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.02578729358774469</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.001441163012560585</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.002570622504960177</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.007205815062802927</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.01285311252480088</v>
       </c>
     </row>

--- a/Sep19/pos_prof/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/pos_prof/Tables/income_no_tax_havens.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
+    <t>IMF (20%) - Sales</t>
+  </si>
+  <si>
+    <t>IMF (20%) - Sales + Emp</t>
+  </si>
+  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales</t>
-  </si>
-  <si>
-    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -480,16 +480,16 @@
         <v>0.0230266145030766</v>
       </c>
       <c r="F2">
+        <v>0.007415338153038805</v>
+      </c>
+      <c r="G2">
+        <v>0.006034852546579005</v>
+      </c>
+      <c r="H2">
         <v>0.03707669076519401</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.0301742627328951</v>
-      </c>
-      <c r="H2">
-        <v>0.01765786126957369</v>
-      </c>
-      <c r="I2">
-        <v>0.01715956248084734</v>
       </c>
       <c r="J2">
         <v>0.08828930634786847</v>
@@ -550,16 +550,16 @@
         <v>0.1100454639252752</v>
       </c>
       <c r="F4">
+        <v>-0.002969016773552038</v>
+      </c>
+      <c r="G4">
+        <v>0.01497156856423381</v>
+      </c>
+      <c r="H4">
         <v>-0.01484508386776018</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.0748578428211691</v>
-      </c>
-      <c r="H4">
-        <v>0.002422255973874029</v>
-      </c>
-      <c r="I4">
-        <v>0.008898072817619713</v>
       </c>
       <c r="J4">
         <v>0.01211127986937016</v>
@@ -585,16 +585,16 @@
         <v>-0.7169661051962088</v>
       </c>
       <c r="F5">
+        <v>-0.1074605673108959</v>
+      </c>
+      <c r="G5">
+        <v>-0.1308112174461001</v>
+      </c>
+      <c r="H5">
         <v>-0.5373028365544797</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-0.6540560872305003</v>
-      </c>
-      <c r="H5">
-        <v>-0.1949980970151109</v>
-      </c>
-      <c r="I5">
-        <v>-0.2034267257700203</v>
       </c>
       <c r="J5">
         <v>-0.9749904850755553</v>
@@ -620,16 +620,16 @@
         <v>0.03407620329856437</v>
       </c>
       <c r="F6">
+        <v>0.002028407217499605</v>
+      </c>
+      <c r="G6">
+        <v>0.00515745871754894</v>
+      </c>
+      <c r="H6">
         <v>0.01014203608749802</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.02578729358774469</v>
-      </c>
-      <c r="H6">
-        <v>0.001441163012560585</v>
-      </c>
-      <c r="I6">
-        <v>0.002570622504960177</v>
       </c>
       <c r="J6">
         <v>0.007205815062802927</v>

--- a/Sep19/pos_prof/Tables/income_no_tax_havens.xlsx
+++ b/Sep19/pos_prof/Tables/income_no_tax_havens.xlsx
@@ -28,16 +28,16 @@
     <t>GFA - Sales + Emp</t>
   </si>
   <si>
-    <t>IMF (20%) - Sales</t>
-  </si>
-  <si>
-    <t>IMF (20%) - Sales + Emp</t>
-  </si>
-  <si>
     <t>IMF - Sales</t>
   </si>
   <si>
     <t>IMF - Sales + Emp</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales</t>
+  </si>
+  <si>
+    <t>OECD (20%) - Sales + Emp</t>
   </si>
   <si>
     <t>OECD - Sales</t>
@@ -480,22 +480,22 @@
         <v>0.0230266145030766</v>
       </c>
       <c r="F2">
-        <v>0.007415338153038805</v>
+        <v>0.03707669076519401</v>
       </c>
       <c r="G2">
-        <v>0.006034852546579005</v>
+        <v>0.0301742627328951</v>
       </c>
       <c r="H2">
-        <v>0.03707669076519401</v>
+        <v>0.004474378400236767</v>
       </c>
       <c r="I2">
-        <v>0.0301742627328951</v>
+        <v>0.003093892793776969</v>
       </c>
       <c r="J2">
-        <v>0.08828930634786847</v>
+        <v>0.02237189200118393</v>
       </c>
       <c r="K2">
-        <v>0.08579781240423663</v>
+        <v>0.01546946396888493</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -550,22 +550,22 @@
         <v>0.1100454639252752</v>
       </c>
       <c r="F4">
-        <v>-0.002969016773552038</v>
+        <v>-0.01484508386776018</v>
       </c>
       <c r="G4">
-        <v>0.01497156856423381</v>
+        <v>0.0748578428211691</v>
       </c>
       <c r="H4">
-        <v>-0.01484508386776018</v>
+        <v>-0.003154700605109875</v>
       </c>
       <c r="I4">
-        <v>0.0748578428211691</v>
+        <v>0.01478588473267597</v>
       </c>
       <c r="J4">
-        <v>0.01211127986937016</v>
+        <v>-0.01577350302554937</v>
       </c>
       <c r="K4">
-        <v>0.04449036408809857</v>
+        <v>0.0739294236633799</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>-0.7169661051962088</v>
       </c>
       <c r="F5">
-        <v>-0.1074605673108959</v>
+        <v>-0.5373028365544797</v>
       </c>
       <c r="G5">
-        <v>-0.1308112174461001</v>
+        <v>-0.6540560872305003</v>
       </c>
       <c r="H5">
-        <v>-0.5373028365544797</v>
+        <v>-0.07298206373172297</v>
       </c>
       <c r="I5">
-        <v>-0.6540560872305003</v>
+        <v>-0.0963327138669271</v>
       </c>
       <c r="J5">
-        <v>-0.9749904850755553</v>
+        <v>-0.3649103186586148</v>
       </c>
       <c r="K5">
-        <v>-1.017133628850102</v>
+        <v>-0.4816635693346353</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>0.03407620329856437</v>
       </c>
       <c r="F6">
-        <v>0.002028407217499605</v>
+        <v>0.01014203608749802</v>
       </c>
       <c r="G6">
-        <v>0.00515745871754894</v>
+        <v>0.02578729358774469</v>
       </c>
       <c r="H6">
-        <v>0.01014203608749802</v>
+        <v>0.0014494817363768</v>
       </c>
       <c r="I6">
-        <v>0.02578729358774469</v>
+        <v>0.00457853323642613</v>
       </c>
       <c r="J6">
-        <v>0.007205815062802927</v>
+        <v>0.007247408681884008</v>
       </c>
       <c r="K6">
-        <v>0.01285311252480088</v>
+        <v>0.02289266618213067</v>
       </c>
     </row>
   </sheetData>
